--- a/data/ap_acv.xlsx
+++ b/data/ap_acv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Alt</t>
-  </si>
-  <si>
-    <t>Two Year Alt</t>
-  </si>
-  <si>
-    <t>Three Year Alt</t>
-  </si>
-  <si>
-    <t>Five Year Alt</t>
-  </si>
-  <si>
-    <t>Ten Year Alt</t>
+    <t>One Year Alt mean</t>
+  </si>
+  <si>
+    <t>One Year Alt std</t>
+  </si>
+  <si>
+    <t>Two Year Alt mean</t>
+  </si>
+  <si>
+    <t>Two Year Alt std</t>
+  </si>
+  <si>
+    <t>Three Year Alt mean</t>
+  </si>
+  <si>
+    <t>Three Year Alt std</t>
+  </si>
+  <si>
+    <t>Five Year Alt mean</t>
+  </si>
+  <si>
+    <t>Five Year Alt std</t>
+  </si>
+  <si>
+    <t>Ten Year Alt mean</t>
+  </si>
+  <si>
+    <t>Ten Year Alt std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.8876004014765646</v>
+        <v>0.9108524668308572</v>
       </c>
       <c r="D2">
-        <v>0.8783759367194005</v>
+        <v>0.007062051377372071</v>
       </c>
       <c r="E2">
-        <v>0.8679343128781332</v>
+        <v>0.8979942766620675</v>
       </c>
       <c r="F2">
-        <v>0.8557278113737705</v>
+        <v>0.005224386208460752</v>
       </c>
       <c r="G2">
-        <v>0.8458277851143917</v>
+        <v>0.8867895239611527</v>
+      </c>
+      <c r="H2">
+        <v>0.01164855173632658</v>
+      </c>
+      <c r="I2">
+        <v>0.8735571690439364</v>
+      </c>
+      <c r="J2">
+        <v>0.02005202183228151</v>
+      </c>
+      <c r="K2">
+        <v>0.8585063906797874</v>
+      </c>
+      <c r="L2">
+        <v>0.01286014379363675</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.8417732226513491</v>
+        <v>0.9128058049310134</v>
       </c>
       <c r="D3">
-        <v>0.831725367749098</v>
+        <v>0.008828217870422416</v>
       </c>
       <c r="E3">
-        <v>0.8209161624891962</v>
+        <v>0.9006912861044396</v>
       </c>
       <c r="F3">
-        <v>0.8123724006736651</v>
+        <v>0.009032381352704635</v>
       </c>
       <c r="G3">
-        <v>0.8141989561569444</v>
+        <v>0.8901136516723206</v>
+      </c>
+      <c r="H3">
+        <v>0.009282781102957424</v>
+      </c>
+      <c r="I3">
+        <v>0.8771527897118634</v>
+      </c>
+      <c r="J3">
+        <v>0.01750721917348182</v>
+      </c>
+      <c r="K3">
+        <v>0.8649287410926366</v>
+      </c>
+      <c r="L3">
+        <v>0.01420321858490662</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.8900126237476492</v>
+        <v>0.8962101109610444</v>
       </c>
       <c r="D4">
-        <v>0.8990358034970857</v>
+        <v>0.01068190511387241</v>
       </c>
       <c r="E4">
-        <v>0.8909248055315471</v>
+        <v>0.8931044565951817</v>
       </c>
       <c r="F4">
-        <v>0.8884318088606159</v>
+        <v>0.01148768872574965</v>
       </c>
       <c r="G4">
-        <v>0.8865994382685713</v>
+        <v>0.8855642168689455</v>
+      </c>
+      <c r="H4">
+        <v>0.01252353845924565</v>
+      </c>
+      <c r="I4">
+        <v>0.8851033969181419</v>
+      </c>
+      <c r="J4">
+        <v>0.01454654953203223</v>
+      </c>
+      <c r="K4">
+        <v>0.8853783508652866</v>
+      </c>
+      <c r="L4">
+        <v>0.01470877466775266</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.8586572264488208</v>
+        <v>0.864982389237573</v>
       </c>
       <c r="D5">
-        <v>0.8563796835970026</v>
+        <v>0.01625405019773603</v>
       </c>
       <c r="E5">
-        <v>0.8542783059636992</v>
+        <v>0.8646072870356175</v>
       </c>
       <c r="F5">
-        <v>0.8497466774871943</v>
+        <v>0.008124686030449019</v>
       </c>
       <c r="G5">
-        <v>0.8355203154042353</v>
+        <v>0.8628158181573242</v>
+      </c>
+      <c r="H5">
+        <v>0.009016085202728197</v>
+      </c>
+      <c r="I5">
+        <v>0.862758850317924</v>
+      </c>
+      <c r="J5">
+        <v>0.01626711234809506</v>
+      </c>
+      <c r="K5">
+        <v>0.8461390114240471</v>
+      </c>
+      <c r="L5">
+        <v>0.01873726968527153</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.7584801576933723</v>
+        <v>0.8495217287677763</v>
       </c>
       <c r="D6">
-        <v>0.7544186788787122</v>
+        <v>0.007977000330878991</v>
       </c>
       <c r="E6">
-        <v>0.7510803802938635</v>
+        <v>0.8389805872099295</v>
       </c>
       <c r="F6">
-        <v>0.7464064504306396</v>
+        <v>0.01327403723336573</v>
       </c>
       <c r="G6">
-        <v>0.7476593151049746</v>
+        <v>0.8204677109230524</v>
+      </c>
+      <c r="H6">
+        <v>0.01415280803444664</v>
+      </c>
+      <c r="I6">
+        <v>0.8067422810333964</v>
+      </c>
+      <c r="J6">
+        <v>0.01555238914882528</v>
+      </c>
+      <c r="K6">
+        <v>0.7992958941296233</v>
+      </c>
+      <c r="L6">
+        <v>0.01730490446365445</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.7750448168909883</v>
+        <v>0.9051598209793174</v>
       </c>
       <c r="D7">
-        <v>0.768247293921732</v>
+        <v>0.007873424681210281</v>
       </c>
       <c r="E7">
-        <v>0.7754537597234227</v>
+        <v>0.8968127026305778</v>
       </c>
       <c r="F7">
-        <v>0.7323881078911315</v>
+        <v>0.008364758121015644</v>
       </c>
       <c r="G7">
-        <v>0.7380533233030687</v>
+        <v>0.8864380365693851</v>
+      </c>
+      <c r="H7">
+        <v>0.01454804508337542</v>
+      </c>
+      <c r="I7">
+        <v>0.8763998682476943</v>
+      </c>
+      <c r="J7">
+        <v>0.01639046116840475</v>
+      </c>
+      <c r="K7">
+        <v>0.872296120348377</v>
+      </c>
+      <c r="L7">
+        <v>0.01243688421154618</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.818621579882713</v>
+        <v>0.9092267153941898</v>
       </c>
       <c r="D8">
-        <v>0.8227316125451013</v>
+        <v>0.007998097683331087</v>
       </c>
       <c r="E8">
-        <v>0.8191875540190147</v>
+        <v>0.8983323964774218</v>
       </c>
       <c r="F8">
-        <v>0.7935014005602242</v>
+        <v>0.01015793771608906</v>
       </c>
       <c r="G8">
-        <v>0.8137305720820029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.9011074234361945</v>
-      </c>
-      <c r="D9">
-        <v>0.8950367749097975</v>
-      </c>
-      <c r="E9">
-        <v>0.8883318928262749</v>
-      </c>
-      <c r="F9">
-        <v>0.8893667373491454</v>
-      </c>
-      <c r="G9">
-        <v>0.8774604577864048</v>
+        <v>0.8927390910315604</v>
+      </c>
+      <c r="H8">
+        <v>0.01066026666597567</v>
+      </c>
+      <c r="I8">
+        <v>0.8904039210631838</v>
+      </c>
+      <c r="J8">
+        <v>0.01631832776733537</v>
+      </c>
+      <c r="K8">
+        <v>0.8791957923311843</v>
+      </c>
+      <c r="L8">
+        <v>0.01188083960418373</v>
       </c>
     </row>
   </sheetData>
